--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C541994-2C67-4D62-AD3A-B23C88652908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128A6E6A-1BA4-4882-B651-4F56B98920C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -4862,7 +4862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -4920,7 +4920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E46F7E-EBF0-44F2-AA2D-0668D88E0AD1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
